--- a/VersionRecords/Version 5.2.0 20161229/版本Bug和特性计划及评审表v5.2.0_马丁组.xlsx
+++ b/VersionRecords/Version 5.2.0 20161229/版本Bug和特性计划及评审表v5.2.0_马丁组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="99">
   <si>
     <t>No</t>
   </si>
@@ -344,12 +344,35 @@
   <si>
     <t>能</t>
   </si>
+  <si>
+    <t>子账号鼠标悬浮房东姓名展示弹框列表，挪动鼠标后弹框消失，无法点击</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加分散式房源，付款方式二无法批量设置</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑房型模板的title错误</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fix Bugs</t>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>张勋</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -569,13 +592,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -825,7 +841,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1129,20 +1145,14 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1159,7 +1169,7 @@
     <xf numFmtId="0" fontId="30" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1576,14 +1586,14 @@
   <dimension ref="A1:XFD169"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.875" style="32" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="43.125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="55.5" style="33" customWidth="1"/>
     <col min="5" max="5" width="15" style="32" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="32" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="32" customWidth="1"/>
@@ -18098,7 +18108,7 @@
       <c r="C3" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="109" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="38" t="s">
@@ -18309,7 +18319,7 @@
       <c r="T6" s="44"/>
       <c r="U6" s="45"/>
     </row>
-    <row r="7" spans="1:16384" s="104" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16384" s="103" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="80">
         <v>6</v>
       </c>
@@ -18359,104 +18369,200 @@
       <c r="Q7" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="R7" s="101"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="101"/>
-      <c r="U7" s="102"/>
-      <c r="V7" s="103"/>
+      <c r="R7" s="100"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="102"/>
     </row>
     <row r="8" spans="1:16384" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="80"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
+      <c r="A8" s="80">
+        <v>7</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="85">
+        <v>42732</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="85">
+        <v>42732</v>
+      </c>
       <c r="K8" s="38"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="100"/>
+      <c r="L8" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="N8" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" s="85">
+        <v>42732</v>
+      </c>
+      <c r="Q8" s="88" t="s">
+        <v>92</v>
+      </c>
       <c r="R8" s="44"/>
       <c r="S8" s="44"/>
       <c r="T8" s="44"/>
       <c r="U8" s="45"/>
     </row>
     <row r="9" spans="1:16384" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="80"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
+      <c r="A9" s="80">
+        <v>8</v>
+      </c>
+      <c r="B9" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="85">
+        <v>42732</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="85">
+        <v>42732</v>
+      </c>
       <c r="K9" s="38"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="100"/>
+      <c r="L9" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="N9" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="P9" s="85">
+        <v>42732</v>
+      </c>
+      <c r="Q9" s="88" t="s">
+        <v>92</v>
+      </c>
       <c r="R9" s="44"/>
       <c r="S9" s="44"/>
       <c r="T9" s="44"/>
       <c r="U9" s="45"/>
     </row>
     <row r="10" spans="1:16384" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="80"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="108"/>
-      <c r="Q10" s="87"/>
+      <c r="A10" s="80">
+        <v>9</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="105" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="85">
+        <v>42732</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="85">
+        <v>42732</v>
+      </c>
+      <c r="K10" s="38"/>
+      <c r="L10" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="98" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="85">
+        <v>42732</v>
+      </c>
+      <c r="Q10" s="88" t="s">
+        <v>92</v>
+      </c>
       <c r="R10" s="44"/>
       <c r="S10" s="44"/>
       <c r="T10" s="49"/>
-      <c r="U10" s="109"/>
+      <c r="U10" s="107"/>
       <c r="V10" s="51"/>
     </row>
     <row r="11" spans="1:16384" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="80"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="107"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="105"/>
       <c r="E11" s="83"/>
       <c r="F11" s="83"/>
       <c r="G11" s="83"/>
-      <c r="H11" s="108"/>
+      <c r="H11" s="106"/>
       <c r="I11" s="83"/>
-      <c r="J11" s="108"/>
+      <c r="J11" s="106"/>
       <c r="K11" s="83"/>
       <c r="L11" s="87"/>
       <c r="M11" s="83"/>
       <c r="N11" s="83"/>
       <c r="O11" s="87"/>
-      <c r="P11" s="108"/>
+      <c r="P11" s="106"/>
       <c r="Q11" s="87"/>
       <c r="R11" s="44"/>
       <c r="S11" s="44"/>
       <c r="T11" s="49"/>
-      <c r="U11" s="110"/>
+      <c r="U11" s="108"/>
       <c r="V11" s="51"/>
     </row>
     <row r="12" spans="1:16384" ht="16.5" x14ac:dyDescent="0.15">
@@ -22000,7 +22106,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T15:T1048576 T10:T11 T1:T6 I1:I1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T15:T1048576 T10:T11 T1:T6 G1:G1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -22196,19 +22302,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
@@ -22246,8 +22352,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="114"/>
-      <c r="B3" s="114"/>
+      <c r="A3" s="112"/>
+      <c r="B3" s="112"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -22259,8 +22365,8 @@
       <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="115"/>
-      <c r="B4" s="116"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="114"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -22272,8 +22378,8 @@
       <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="114"/>
-      <c r="B5" s="114"/>
+      <c r="A5" s="112"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -22285,8 +22391,8 @@
       <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="116"/>
-      <c r="B6" s="116"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -22298,8 +22404,8 @@
       <c r="K6" s="28"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="116"/>
-      <c r="B7" s="116"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="114"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -22311,8 +22417,8 @@
       <c r="K7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="116"/>
-      <c r="B8" s="116"/>
+      <c r="A8" s="114"/>
+      <c r="B8" s="114"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -22324,8 +22430,8 @@
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="116"/>
-      <c r="B9" s="116"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="114"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -22337,8 +22443,8 @@
       <c r="K9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="115"/>
-      <c r="B10" s="115"/>
+      <c r="A10" s="113"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -22399,36 +22505,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="118"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="116"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="120"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="118"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -22713,36 +22819,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="118"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="116"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="120"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="118"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -23027,36 +23133,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="118"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="116"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="120"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="118"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -23343,36 +23449,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="118"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="116"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="119"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="120"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="118"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
